--- a/Boletim.xlsx
+++ b/Boletim.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b72a05db9a6da728/Documentos/FIAP/SI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositorios\fiap-2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="114_{DC54768E-4E35-4C91-AAEE-802682D699B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DF2EB476-2803-4748-9E45-50D84539CECC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF398099-8584-4D2F-A803-74C0619BA804}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1076,7 +1074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3587528C-BD57-43E2-9B70-342E29E690A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -1647,11 +1645,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9C7571-7B8D-446E-B6AA-49033E34C8A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1794,12 +1792,14 @@
       <c r="A7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1">
+        <v>7</v>
+      </c>
       <c r="C7" s="13"/>
       <c r="D7" s="1"/>
       <c r="E7" s="11">
         <f t="shared" ref="E7:E12" si="2">(B7*0.2)+(C7*0.3)+(D7*0.5)</f>
-        <v>0</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="14"/>
@@ -1810,7 +1810,7 @@
       </c>
       <c r="L7" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="N7" s="9"/>
       <c r="O7" s="1"/>
@@ -1821,13 +1821,13 @@
         <v>23</v>
       </c>
       <c r="B8" s="19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="1"/>
       <c r="E8" s="11">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="14"/>
@@ -1838,7 +1838,7 @@
       </c>
       <c r="L8" s="11">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -1847,12 +1847,14 @@
       <c r="A9" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="19"/>
+      <c r="B9" s="19">
+        <v>9.8000000000000007</v>
+      </c>
       <c r="C9" s="13"/>
       <c r="D9" s="5"/>
       <c r="E9" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.9600000000000002</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="14"/>
@@ -1863,7 +1865,7 @@
       </c>
       <c r="L9" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -1949,12 +1951,14 @@
       <c r="A13" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="19"/>
+      <c r="B13" s="19">
+        <v>10</v>
+      </c>
       <c r="C13" s="15"/>
       <c r="D13" s="1"/>
       <c r="E13" s="11">
         <f>(B13*0.2)+(C13*0.3)+(D13*0.5)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="16"/>
@@ -1965,7 +1969,7 @@
       </c>
       <c r="L13" s="11">
         <f>(E13+J13)/2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>

--- a/Boletim.xlsx
+++ b/Boletim.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositorios\fiap-2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF398099-8584-4D2F-A803-74C0619BA804}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856E83DE-D691-492A-9A3C-4A12C4C5B6E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -129,7 +131,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +165,12 @@
     <font>
       <sz val="18"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -296,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -320,15 +328,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1093,105 +1092,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
-      <c r="G3" s="25" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="G3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="27"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="24"/>
       <c r="K3" s="7"/>
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="L5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="17" t="s">
+      <c r="N5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="17" t="s">
+      <c r="O5" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1">
@@ -1210,7 +1209,7 @@
       <c r="G6" s="1">
         <v>10</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="18">
         <v>8</v>
       </c>
       <c r="I6" s="5">
@@ -1232,7 +1231,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="1">
@@ -1251,7 +1250,7 @@
       <c r="G7" s="1">
         <v>9</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="18">
         <v>8</v>
       </c>
       <c r="I7" s="1">
@@ -1274,10 +1273,10 @@
       <c r="S7" s="4"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="16">
         <v>8.5</v>
       </c>
       <c r="C8" s="13">
@@ -1293,7 +1292,7 @@
       <c r="G8" s="1">
         <v>6</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="18">
         <v>8</v>
       </c>
       <c r="I8" s="1">
@@ -1315,10 +1314,10 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="16">
         <v>10</v>
       </c>
       <c r="C9" s="13">
@@ -1334,7 +1333,7 @@
       <c r="G9" s="1">
         <v>10</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="18">
         <v>8</v>
       </c>
       <c r="I9" s="1">
@@ -1356,10 +1355,10 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="17">
         <v>6</v>
       </c>
       <c r="C10" s="13">
@@ -1375,7 +1374,7 @@
       <c r="G10" s="1">
         <v>10</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="18">
         <v>8</v>
       </c>
       <c r="I10" s="1">
@@ -1397,10 +1396,10 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="16">
         <v>8</v>
       </c>
       <c r="C11" s="13">
@@ -1416,7 +1415,7 @@
       <c r="G11" s="1">
         <v>10</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="18">
         <v>8</v>
       </c>
       <c r="I11" s="1">
@@ -1438,10 +1437,10 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="16">
         <v>10</v>
       </c>
       <c r="C12" s="13">
@@ -1457,7 +1456,7 @@
       <c r="G12" s="1">
         <v>7.5</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="18">
         <v>8</v>
       </c>
       <c r="I12" s="1">
@@ -1479,10 +1478,10 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="16">
         <v>10</v>
       </c>
       <c r="C13" s="13">
@@ -1498,7 +1497,7 @@
       <c r="G13" s="1">
         <v>4</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="18">
         <v>8</v>
       </c>
       <c r="I13" s="1">
@@ -1521,7 +1520,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G14" s="10"/>
-      <c r="H14" s="22"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G15" s="3"/>
@@ -1648,8 +1647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1664,312 +1663,380 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
-      <c r="G3" s="25" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="G3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="27"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="24"/>
       <c r="K3" s="7"/>
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="L5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="17" t="s">
+      <c r="N5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="17" t="s">
+      <c r="O5" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="1">
         <v>9.5</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="1"/>
+      <c r="C6" s="13">
+        <v>8.5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>8</v>
+      </c>
       <c r="E6" s="11">
         <f>(B6*0.2)+(C6*0.3)+(D6*0.5)</f>
-        <v>1.9000000000000001</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="14"/>
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="G6" s="1">
+        <v>10</v>
+      </c>
+      <c r="H6" s="18">
+        <v>7.7</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1">
         <f t="shared" ref="J6:J12" si="0">(G6*0.2)+(H6*0.3)+(I6*0.5)</f>
-        <v>0</v>
+        <v>4.3100000000000005</v>
       </c>
       <c r="L6" s="11">
         <f t="shared" ref="L6:L12" si="1">(E6+J6)/2</f>
-        <v>0.95000000000000007</v>
+        <v>6.38</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="1">
         <v>7</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="1"/>
+      <c r="C7" s="13">
+        <v>8.5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>10</v>
+      </c>
       <c r="E7" s="11">
         <f t="shared" ref="E7:E12" si="2">(B7*0.2)+(C7*0.3)+(D7*0.5)</f>
-        <v>1.4000000000000001</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="14"/>
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="G7" s="1">
+        <v>10</v>
+      </c>
+      <c r="H7" s="18">
+        <v>7.7</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3100000000000005</v>
       </c>
       <c r="L7" s="11">
         <f t="shared" si="1"/>
-        <v>0.70000000000000007</v>
+        <v>6.63</v>
       </c>
       <c r="N7" s="9"/>
       <c r="O7" s="1"/>
       <c r="S7" s="4"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="16">
         <v>9</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="1"/>
+      <c r="C8" s="13">
+        <v>8.5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>8</v>
+      </c>
       <c r="E8" s="11">
         <f t="shared" si="2"/>
-        <v>1.8</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="14"/>
+        <v>8.35</v>
+      </c>
+      <c r="G8" s="1">
+        <v>10</v>
+      </c>
+      <c r="H8" s="18">
+        <v>7.7</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3100000000000005</v>
       </c>
       <c r="L8" s="11">
         <f t="shared" si="1"/>
-        <v>0.9</v>
+        <v>6.33</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="19">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="5"/>
+      <c r="B9" s="16">
+        <v>10</v>
+      </c>
+      <c r="C9" s="13">
+        <v>8.5</v>
+      </c>
+      <c r="D9" s="5">
+        <v>9.5</v>
+      </c>
       <c r="E9" s="11">
         <f t="shared" si="2"/>
-        <v>1.9600000000000002</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="14"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G9" s="1">
+        <v>10</v>
+      </c>
+      <c r="H9" s="18">
+        <v>7.7</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3100000000000005</v>
       </c>
       <c r="L9" s="11">
         <f t="shared" si="1"/>
-        <v>0.98000000000000009</v>
+        <v>6.8050000000000006</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="5"/>
+      <c r="B10" s="17">
+        <v>0</v>
+      </c>
+      <c r="C10" s="13">
+        <v>8.5</v>
+      </c>
+      <c r="D10" s="5">
+        <v>10</v>
+      </c>
       <c r="E10" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="14"/>
+        <v>7.55</v>
+      </c>
+      <c r="G10" s="1">
+        <v>6</v>
+      </c>
+      <c r="H10" s="18">
+        <v>7.7</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.5100000000000002</v>
       </c>
       <c r="L10" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.53</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="16">
         <v>9</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="13">
+        <v>8.5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>10</v>
+      </c>
       <c r="E11" s="11">
         <f t="shared" si="2"/>
-        <v>1.8</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="14"/>
+        <v>9.35</v>
+      </c>
+      <c r="G11" s="1">
+        <v>5</v>
+      </c>
+      <c r="H11" s="18">
+        <v>7.7</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.31</v>
       </c>
       <c r="L11" s="11">
         <f t="shared" si="1"/>
-        <v>0.9</v>
+        <v>6.33</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="5"/>
+      <c r="B12" s="16">
+        <v>10</v>
+      </c>
+      <c r="C12" s="13">
+        <v>8.5</v>
+      </c>
+      <c r="D12" s="5">
+        <v>10</v>
+      </c>
       <c r="E12" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="14"/>
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="G12" s="1">
+        <v>10</v>
+      </c>
+      <c r="H12" s="18">
+        <v>7.7</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3100000000000005</v>
       </c>
       <c r="L12" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.9300000000000006</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="19">
-        <v>10</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="1"/>
+      <c r="B13" s="16">
+        <v>9.5</v>
+      </c>
+      <c r="C13" s="13">
+        <v>8.5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>9</v>
+      </c>
       <c r="E13" s="11">
         <f>(B13*0.2)+(C13*0.3)+(D13*0.5)</f>
-        <v>2</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="16"/>
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="18">
+        <v>7.7</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1">
         <f>(G13*0.2)+(H13*0.3)+(I13*0.5)</f>
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="L13" s="11">
         <f>(E13+J13)/2</f>
-        <v>1</v>
+        <v>5.63</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -1996,6 +2063,7 @@
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="G4:K4"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="I13">
     <cfRule type="cellIs" dxfId="27" priority="12" operator="greaterThan">
       <formula>6</formula>
@@ -2007,7 +2075,7 @@
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L13 B13:E13 G13:J13">
+  <conditionalFormatting sqref="L13 B13 G13 D13:E13 I13:J13">
     <cfRule type="cellIs" dxfId="24" priority="10" operator="lessThan">
       <formula>5</formula>
     </cfRule>
@@ -2015,22 +2083,22 @@
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L13 B13:E13 G13:J13">
+  <conditionalFormatting sqref="L13 B13 G13 D13:E13 I13:J13">
     <cfRule type="cellIs" dxfId="22" priority="9" operator="greaterThan">
       <formula>"&gt;=6"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L13 B13:E13">
+  <conditionalFormatting sqref="L13 B13 D13:E13">
     <cfRule type="cellIs" dxfId="21" priority="8" operator="greaterThanOrEqual">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L13 B13:E13">
+  <conditionalFormatting sqref="L13 B13 D13:E13">
     <cfRule type="cellIs" dxfId="20" priority="7" operator="lessThanOrEqual">
       <formula>5.9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13:J13">
+  <conditionalFormatting sqref="G13 I13:J13">
     <cfRule type="cellIs" dxfId="19" priority="5" operator="lessThanOrEqual">
       <formula>5.9</formula>
     </cfRule>
@@ -2065,7 +2133,7 @@
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6:L12 B6:E12 G6:J12">
+  <conditionalFormatting sqref="L6:L12 B6:E7 G6:J7 B8:B12 D8:E12 C8:C13 G8:G12 I8:J12 H8:H13">
     <cfRule type="cellIs" dxfId="10" priority="24" operator="lessThan">
       <formula>5</formula>
     </cfRule>
@@ -2073,22 +2141,22 @@
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6:L12 B6:E12 G6:J12">
+  <conditionalFormatting sqref="L6:L12 B6:E7 G6:J7 B8:B12 D8:E12 C8:C13 G8:G12 I8:J12 H8:H13">
     <cfRule type="cellIs" dxfId="8" priority="23" operator="greaterThan">
       <formula>"&gt;=6"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12 L6:L12 B6:E12">
+  <conditionalFormatting sqref="I12 L6:L12 B6:E7 B8:B12 D8:E12 C8:C13">
     <cfRule type="cellIs" dxfId="7" priority="22" operator="greaterThanOrEqual">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12 L6:L12 B6:E12">
+  <conditionalFormatting sqref="I12 L6:L12 B6:E7 B8:B12 D8:E12 C8:C13">
     <cfRule type="cellIs" dxfId="6" priority="21" operator="lessThanOrEqual">
       <formula>5.9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:J12">
+  <conditionalFormatting sqref="G6:J7 G8:G12 I8:J12 H8:H13">
     <cfRule type="cellIs" dxfId="5" priority="19" operator="lessThanOrEqual">
       <formula>5.9</formula>
     </cfRule>
